--- a/teaching/traditional_assets/database/data/kenya/kenya_reinsurance.xlsx
+++ b/teaching/traditional_assets/database/data/kenya/kenya_reinsurance.xlsx
@@ -591,49 +591,49 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0944</v>
+        <v>0.07580000000000001</v>
       </c>
       <c r="E2">
-        <v>-0.0701</v>
+        <v>0.0563</v>
       </c>
       <c r="F2">
         <v>0.18</v>
       </c>
       <c r="G2">
-        <v>0.1450134770889488</v>
+        <v>0.1013615733736763</v>
       </c>
       <c r="H2">
-        <v>0.1450134770889488</v>
+        <v>0.1013615733736763</v>
       </c>
       <c r="I2">
-        <v>0.122911051212938</v>
+        <v>0.1280887544125063</v>
       </c>
       <c r="J2">
-        <v>0.09578744705429343</v>
+        <v>0.1168426175871816</v>
       </c>
       <c r="K2">
-        <v>20.8</v>
+        <v>41.8</v>
       </c>
       <c r="L2">
-        <v>0.1121293800539084</v>
+        <v>0.210791729702471</v>
       </c>
       <c r="M2">
-        <v>5.82</v>
+        <v>2.96</v>
       </c>
       <c r="N2">
-        <v>0.06953405017921147</v>
+        <v>0.04974789915966386</v>
       </c>
       <c r="O2">
-        <v>0.2798076923076923</v>
+        <v>0.07081339712918661</v>
       </c>
       <c r="P2">
-        <v>5.82</v>
+        <v>2.96</v>
       </c>
       <c r="Q2">
-        <v>0.06953405017921147</v>
+        <v>0.04974789915966386</v>
       </c>
       <c r="R2">
-        <v>0.2798076923076923</v>
+        <v>0.07081339712918661</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -642,31 +642,31 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>72</v>
+        <v>86.8</v>
       </c>
       <c r="V2">
-        <v>0.8602150537634409</v>
+        <v>1.458823529411765</v>
       </c>
       <c r="W2">
-        <v>0.07449856733524356</v>
+        <v>0.146615222728867</v>
       </c>
       <c r="X2">
-        <v>0.1169624962825721</v>
+        <v>0.1351317619518854</v>
       </c>
       <c r="Y2">
-        <v>-0.04246392894732856</v>
+        <v>0.01148346077698167</v>
       </c>
       <c r="Z2">
-        <v>0.7488897860314897</v>
+        <v>0.9305490380103237</v>
       </c>
       <c r="AA2">
-        <v>0.07173424072899245</v>
+        <v>0.10872778539436</v>
       </c>
       <c r="AB2">
-        <v>0.1169624962825721</v>
+        <v>0.1351317619518854</v>
       </c>
       <c r="AC2">
-        <v>-0.04522825555357966</v>
+        <v>-0.02640397655752534</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-72</v>
+        <v>-86.8</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -687,10 +687,10 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-6.153846153846152</v>
+        <v>3.17948717948718</v>
       </c>
       <c r="AK2">
-        <v>-0.337869544814641</v>
+        <v>-0.3880196691998212</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>-3.116883116883117</v>
+        <v>-3.364341085271318</v>
       </c>
     </row>
     <row r="3">
@@ -722,49 +722,49 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0944</v>
+        <v>0.07580000000000001</v>
       </c>
       <c r="E3">
-        <v>-0.0701</v>
+        <v>0.0563</v>
       </c>
       <c r="F3">
         <v>0.18</v>
       </c>
       <c r="G3">
-        <v>0.1450134770889488</v>
+        <v>0.1013615733736763</v>
       </c>
       <c r="H3">
-        <v>0.1450134770889488</v>
+        <v>0.1013615733736763</v>
       </c>
       <c r="I3">
-        <v>0.122911051212938</v>
+        <v>0.1280887544125063</v>
       </c>
       <c r="J3">
-        <v>0.09578744705429343</v>
+        <v>0.1168426175871816</v>
       </c>
       <c r="K3">
-        <v>20.8</v>
+        <v>41.8</v>
       </c>
       <c r="L3">
-        <v>0.1121293800539084</v>
+        <v>0.210791729702471</v>
       </c>
       <c r="M3">
-        <v>5.82</v>
+        <v>2.96</v>
       </c>
       <c r="N3">
-        <v>0.06953405017921147</v>
+        <v>0.04974789915966386</v>
       </c>
       <c r="O3">
-        <v>0.2798076923076923</v>
+        <v>0.07081339712918661</v>
       </c>
       <c r="P3">
-        <v>5.82</v>
+        <v>2.96</v>
       </c>
       <c r="Q3">
-        <v>0.06953405017921147</v>
+        <v>0.04974789915966386</v>
       </c>
       <c r="R3">
-        <v>0.2798076923076923</v>
+        <v>0.07081339712918661</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,31 +773,31 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>72</v>
+        <v>86.8</v>
       </c>
       <c r="V3">
-        <v>0.8602150537634409</v>
+        <v>1.458823529411765</v>
       </c>
       <c r="W3">
-        <v>0.07449856733524356</v>
+        <v>0.146615222728867</v>
       </c>
       <c r="X3">
-        <v>0.1169624962825721</v>
+        <v>0.1351317619518854</v>
       </c>
       <c r="Y3">
-        <v>-0.04246392894732856</v>
+        <v>0.01148346077698167</v>
       </c>
       <c r="Z3">
-        <v>0.7488897860314897</v>
+        <v>0.9305490380103237</v>
       </c>
       <c r="AA3">
-        <v>0.07173424072899245</v>
+        <v>0.10872778539436</v>
       </c>
       <c r="AB3">
-        <v>0.1169624962825721</v>
+        <v>0.1351317619518854</v>
       </c>
       <c r="AC3">
-        <v>-0.04522825555357966</v>
+        <v>-0.02640397655752534</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-72</v>
+        <v>-86.8</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -818,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-6.153846153846152</v>
+        <v>3.17948717948718</v>
       </c>
       <c r="AK3">
-        <v>-0.337869544814641</v>
+        <v>-0.3880196691998212</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>-3.116883116883117</v>
+        <v>-3.364341085271318</v>
       </c>
     </row>
   </sheetData>
